--- a/_content/john-abbott-college/computerized-systems/lectures/09-excel-but-fancier/excels/Demos.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/09-excel-but-fancier/excels/Demos.xlsx
@@ -5,26 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/09-excel-but-fancier/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35936988-25B2-E54D-919B-F945CC5C95E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B3859-CC60-BE43-91A9-2EF739667278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D3CCFF4C-5185-7E49-A944-2FE916FDFD03}"/>
+    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="19900" xr2:uid="{D3CCFF4C-5185-7E49-A944-2FE916FDFD03}"/>
   </bookViews>
   <sheets>
-    <sheet name="Formatting &amp;&amp; Numbers" sheetId="1" r:id="rId1"/>
-    <sheet name="Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="Formatting Demo" sheetId="1" r:id="rId1"/>
+    <sheet name="Standard Dev Demo" sheetId="2" r:id="rId2"/>
+    <sheet name="Charts &amp;&amp; Trendline Demo" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Stats!$A$4:$A$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Stats!$B$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Stats!$B$4:$B$13</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Stats!$A$4:$A$13</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Stats!$B$3</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Stats!$B$4:$B$13</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Charts &amp;&amp; Trendline Demo'!$A$4:$A$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Charts &amp;&amp; Trendline Demo'!$B$4:$B$9</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Charts &amp;&amp; Trendline Demo'!$A$4:$A$9</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Charts &amp;&amp; Trendline Demo'!$B$4:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Height (cm)</t>
   </si>
@@ -57,13 +56,40 @@
   </si>
   <si>
     <t>Class member</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>User Distribution (%)</t>
+  </si>
+  <si>
+    <t>Demographic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +104,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,17 +151,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,14 +499,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6750B8A3-2174-734B-97AE-73142FF4A30B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="269" zoomScaleNormal="269" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="269" zoomScaleNormal="269" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -470,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C374AF75-4463-454A-AEB0-D408BA21F09E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,5 +558,82 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12166CA2-485A-0D4E-B2D5-36771FA8732C}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>